--- a/data/trans_bre/P7B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-32,87%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-29,05%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-19,6%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-30,96%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,37; -0,53</t>
+          <t>-4,82; 16,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 1,14</t>
+          <t>-2,42; 16,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 2,33</t>
+          <t>-4,19; 10,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 7,57</t>
+          <t>-2,46; 9,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,51; -2,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,79; -1,56</t>
+          <t>-26,03; 212,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,18; 8,47</t>
+          <t>-15,06; 163,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 11,36</t>
+          <t>-18,84; 76,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 56,97</t>
+          <t>-13,16; 73,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-47,15; -8,45</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 9,89</t>
+          <t>-3,89; 14,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 12,55</t>
+          <t>-0,33; 16,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 10,3</t>
+          <t>-2,36; 11,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 9,73</t>
+          <t>-2,99; 8,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 14,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 31,2</t>
+          <t>-10,02; 48,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 42,16</t>
+          <t>-0,8; 56,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 32,3</t>
+          <t>-5,94; 35,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 31,52</t>
+          <t>-7,79; 28,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 44,24</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 12,03</t>
+          <t>-2,02; 16,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 15,0</t>
+          <t>-1,96; 15,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 16,0</t>
+          <t>0,96; 14,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 14,5</t>
+          <t>2,66; 14,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 15,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 34,93</t>
+          <t>-5,03; 49,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 46,59</t>
+          <t>-4,28; 46,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 52,61</t>
+          <t>2,25; 46,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 45,65</t>
+          <t>6,7; 46,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 67,47</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>-14,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,58 +1054,186 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,39</t>
+          <t>-7,28; 2,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 7,38</t>
+          <t>-12,14; 1,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 7,43</t>
+          <t>-9,89; 6,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 7,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 5,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 16,88</t>
+          <t>-19,53; 9,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 24,23</t>
+          <t>-30,62; 3,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 24,56</t>
+          <t>-25,48; 22,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 27,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 17,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,67</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,79%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 4,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 6,63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 7,91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 8,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 15,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 21,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 27,31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 28,53</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P7B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,69</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>43,93%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>48,91%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>21,41%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>20,34%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>5.808079664213617</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.517047997480407</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.644988581108634</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.909497694829413</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>0.4393277242435875</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4093948174236233</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1457654078288979</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1712098040357971</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 16,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 16,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 10,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 9,48</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-26,03; 212,9</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-15,06; 163,71</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-18,84; 76,43</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-13,16; 73,02</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.821876202439491</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.798615826682202</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.914319752926406</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.95138715553114</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.2603202248218029</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.205312059137284</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2240542115611237</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1463899726571752</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.53840363096285</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.89593407623875</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.681612883106903</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.251417292277086</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>2.129030386442031</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.532784159542407</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6698282641975615</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.6735964386790435</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,16%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>23,34%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,67%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,85%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 14,37</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 16,17</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 11,23</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 8,84</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-10,02; 48,78</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 56,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 35,01</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-7,79; 28,35</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>5.782574994400441</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.503081350634956</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.544402998516951</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.804119722250754</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>0.1715607922602701</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.253517473656115</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1575145603044951</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1112140723847354</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,73</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>18,85%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>19,35%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>22,89%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>25,08%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.892478019758872</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.2605633182219182</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.222039967276476</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.401809296562046</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.1002364358222869</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.003831371492320872</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.03123176844834539</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.06556358141993376</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 16,34</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 15,36</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 14,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 14,72</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 49,83</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 46,15</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 46,51</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 46,04</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.366872810062</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.95134352063591</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.43263057625832</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.430524151069514</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>0.4877993793222918</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5895196994230569</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3978327288565802</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.3087840103041998</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +855,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,1</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-6,05%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-14,89%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-4,31%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>7.081629499445913</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.984370493469312</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.63172413954867</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.956893843498426</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.1885332656754361</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2061025521420279</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2429043720353608</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2567944490770799</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 2,99</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,14; 1,09</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 6,49</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-19,53; 9,47</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-30,62; 3,46</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-25,48; 22,03</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.021513407319457</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.003290871341886</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.470005024994739</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2.778173277476264</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.05030595012431921</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.03855326051907138</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.0352474055960556</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.07529309294880843</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.33994975033718</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.24979859299343</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.14510723644056</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.84383060905206</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.4982729196570571</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.4990930081802251</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4848470392698899</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.4680254865905994</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,62%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>11,38%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>13,79%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 4,82</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 6,63</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 7,91</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 8,12</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 15,53</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 21,37</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 27,31</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 28,53</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.212695555477726</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.407073824504506</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.431481294967377</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.491901509653657</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>0.1969581997406785</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2275219794488688</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1704862047778476</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1458519818401959</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3122025576008272</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.975363047322629</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.032420289834431</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.7879377676553679</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>0.003001344041065019</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.0493055024028921</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.02898440721432555</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.02269914509346012</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.94409153163087</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.89815370719772</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.553160279560176</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.40107372377636</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.427696120513668</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4439555025049325</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3186986441454289</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2978584924525226</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
